--- a/menu.xlsx
+++ b/menu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJH\Documents\GitHub\Menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6B7D6-46FF-4F01-84D8-4A0C0EDC4019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C72F33-F379-42CE-B0A0-B402AF30489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F04B0A31-5F33-4C22-8000-698522562AB1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="384">
   <si>
     <t>work,coffee,work</t>
   </si>
@@ -45,15 +45,9 @@
     <t>경기도 안산시 상록구 사동 1149-1 2층</t>
   </si>
   <si>
-    <t>교촌치킨 사동1호점</t>
-  </si>
-  <si>
     <t>치킨,닭강정</t>
   </si>
   <si>
-    <t>경기도 안산시 상록구 사동 1172</t>
-  </si>
-  <si>
     <t>원조청학칡냉면 안산본점</t>
   </si>
   <si>
@@ -69,12 +63,6 @@
     <t>경기도 안산시 상록구 사동 1152 304호</t>
   </si>
   <si>
-    <t>크레바스</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1581-4 1층</t>
-  </si>
-  <si>
     <t>한솥도시락 안산한양대점</t>
   </si>
   <si>
@@ -300,9 +288,6 @@
     <t>행복한짬뽕</t>
   </si>
   <si>
-    <t>경기도 안산시 상록구 사동 1271 한양대에리카 게스트하우스 1층</t>
-  </si>
-  <si>
     <t>커피플레닛 안산한양대점</t>
   </si>
   <si>
@@ -324,12 +309,6 @@
     <t>핫도그</t>
   </si>
   <si>
-    <t>오가다 한양대에리카캠퍼스점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1271</t>
-  </si>
-  <si>
     <t>맥주,호프</t>
   </si>
   <si>
@@ -342,21 +321,9 @@
     <t>전통,민속주점</t>
   </si>
   <si>
-    <t>BHC치킨 한양대점</t>
-  </si>
-  <si>
     <t>비엔나커피하우스 안산한양대점</t>
   </si>
   <si>
-    <t>뉴욕버거 한양대 에리카점</t>
-  </si>
-  <si>
-    <t>햄버거</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1271 복지관 2층</t>
-  </si>
-  <si>
     <t>달의객잔</t>
   </si>
   <si>
@@ -393,9 +360,6 @@
     <t>경기도 안산시 상록구 사동 1561-6</t>
   </si>
   <si>
-    <t>바비든든</t>
-  </si>
-  <si>
     <t>커피두</t>
   </si>
   <si>
@@ -405,19 +369,7 @@
     <t>퓨전음식</t>
   </si>
   <si>
-    <t>블루포트 한양대학교ERICA점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1271 학생복지관 3층</t>
-  </si>
-  <si>
     <t>베트남음식</t>
-  </si>
-  <si>
-    <t>아리랑컵밥 한양대에리카점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1271 한양대 게스트하우스 내 1층</t>
   </si>
   <si>
     <t>종합분식</t>
@@ -443,15 +395,6 @@
     <t>경기도 안산시 상록구 사동 1158</t>
   </si>
   <si>
-    <t>삼수갑산</t>
-  </si>
-  <si>
-    <t>쌈밥</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1348</t>
-  </si>
-  <si>
     <t>투파인드피터  한양대 ERICA점</t>
   </si>
   <si>
@@ -518,16 +461,9 @@
     <t>경기도 안산시 상록구 사동 1149-22</t>
   </si>
   <si>
-    <t>상록한정식</t>
-  </si>
-  <si>
     <t>한정식</t>
   </si>
   <si>
-    <t>경기도 안산시 상록구 사동 1271-11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>텟포</t>
   </si>
   <si>
@@ -588,9 +524,6 @@
     <t>경기도 안산시 상록구 사동 1569-1 제비동 1층</t>
   </si>
   <si>
-    <t>피자브라더스 안산점</t>
-  </si>
-  <si>
     <t>경기도 안산시 상록구 사동 1154-15</t>
   </si>
   <si>
@@ -621,15 +554,6 @@
     <t>경기도 안산시 상록구 사동 1555-2 1층 아로하</t>
   </si>
   <si>
-    <t>흑염소 흑마루</t>
-  </si>
-  <si>
-    <t>사철,영양탕</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1550-9</t>
-  </si>
-  <si>
     <t>브라더스테이크</t>
   </si>
   <si>
@@ -639,9 +563,6 @@
     <t>경기도 안산시 상록구 사동 1155-11 103호</t>
   </si>
   <si>
-    <t>MEAL PLAN B</t>
-  </si>
-  <si>
     <t>경기도 안산시 상록구 사동 1149-11 1층 밀플랜비</t>
   </si>
   <si>
@@ -657,24 +578,12 @@
     <t>경기도 안산시 상록구 사동 1576-1</t>
   </si>
   <si>
-    <t>어담</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1350</t>
-  </si>
-  <si>
     <t>UP플레이스</t>
   </si>
   <si>
     <t>경기도 안산시 상록구 사동 1149-13 1층</t>
   </si>
   <si>
-    <t>시골우렁쌈밥 본점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1191-14</t>
-  </si>
-  <si>
     <t>알촌 한양대에리카점</t>
   </si>
   <si>
@@ -705,45 +614,9 @@
     <t>경기도 안산시 상록구 사동 1569-1 B동 2층</t>
   </si>
   <si>
-    <t>전국5대짬뽕교동짬뽕</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1274-1 1층</t>
-  </si>
-  <si>
-    <t>장모님옻닭보쌈</t>
-  </si>
-  <si>
     <t>백숙,삼계탕</t>
   </si>
   <si>
-    <t>경기도 안산시 상록구 사동 1277</t>
-  </si>
-  <si>
-    <t>BHC치킨 고잔신도시점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1512 안산고잔6차푸르지오상가 2102호</t>
-  </si>
-  <si>
-    <t>목포뻘낙지</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1350-6</t>
-  </si>
-  <si>
-    <t>오소돈</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1348-1</t>
-  </si>
-  <si>
-    <t>구곡산장</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1352-4</t>
-  </si>
-  <si>
     <t>경기도 안산시 상록구 사동 1155-14 2층 201호</t>
   </si>
   <si>
@@ -771,42 +644,6 @@
     <t>경기도 안산시 상록구 사동 1149-21</t>
   </si>
   <si>
-    <t>산골송어</t>
-  </si>
-  <si>
-    <t>생선회</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1352-7</t>
-  </si>
-  <si>
-    <t>류식당</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동  1349-15</t>
-  </si>
-  <si>
-    <t>신라샤브샤브칼국수</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1543-4</t>
-  </si>
-  <si>
-    <t>요거프레소 안산해양점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1511</t>
-  </si>
-  <si>
-    <t>산두리비빔국수 안산점</t>
-  </si>
-  <si>
-    <t>국수</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동  1349-22</t>
-  </si>
-  <si>
     <t>유메식당</t>
   </si>
   <si>
@@ -822,21 +659,9 @@
     <t>경기도 안산시 상록구 사동  1149-23</t>
   </si>
   <si>
-    <t>피자헐 사1동점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1286-8</t>
-  </si>
-  <si>
-    <t>박혜자낙지마당 본점</t>
-  </si>
-  <si>
     <t>낙지요리</t>
   </si>
   <si>
-    <t>경기도 안산시 상록구 사동 1185-15</t>
-  </si>
-  <si>
     <t>와우곱창 한양대에리카점</t>
   </si>
   <si>
@@ -849,27 +674,12 @@
     <t>숲속쉼표</t>
   </si>
   <si>
-    <t>경기도 안산시 상록구 사동  1553</t>
-  </si>
-  <si>
     <t>헤세드충무김밥 안산본점</t>
   </si>
   <si>
     <t>경기도 안산시 상록구 사동 1555-6</t>
   </si>
   <si>
-    <t>굽네치킨 안산한양대점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1550-8</t>
-  </si>
-  <si>
-    <t>구이명가국민갈비 사동본점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1372-6</t>
-  </si>
-  <si>
     <t>커피플랜트</t>
   </si>
   <si>
@@ -879,12 +689,6 @@
     <t>경기도 안산시 상록구 사동 1568-5</t>
   </si>
   <si>
-    <t>푸드박스</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1363 1층</t>
-  </si>
-  <si>
     <t>천사곱창 한양대에리카점</t>
   </si>
   <si>
@@ -945,24 +749,12 @@
     <t>경기도 안산시 상록구 사동 1149</t>
   </si>
   <si>
-    <t>엔비에스피</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1572-4</t>
-  </si>
-  <si>
     <t>6번지</t>
   </si>
   <si>
     <t>경기도 안산시 상록구 사동 1568-6</t>
   </si>
   <si>
-    <t>외갓집코다리찜</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1172-14</t>
-  </si>
-  <si>
     <t>신정골</t>
   </si>
   <si>
@@ -972,33 +764,6 @@
     <t>경기도 안산시 상록구 사동 1574-9</t>
   </si>
   <si>
-    <t>도니스커피</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1545-4</t>
-  </si>
-  <si>
-    <t>소담쭈꾸미</t>
-  </si>
-  <si>
-    <t>주꾸미요리</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1348-3</t>
-  </si>
-  <si>
-    <t>허브나무 댕이골점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1352-8</t>
-  </si>
-  <si>
-    <t>신중한커피</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1349-20</t>
-  </si>
-  <si>
     <t>일미닭갈비파전 한양대점</t>
   </si>
   <si>
@@ -1008,15 +773,6 @@
     <t>경기도 안산시 상록구 사동 1151-5</t>
   </si>
   <si>
-    <t>어촌</t>
-  </si>
-  <si>
-    <t>생선구이</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1348-2</t>
-  </si>
-  <si>
     <t>아마스빈 안산한양대점</t>
   </si>
   <si>
@@ -1038,9 +794,6 @@
     <t>경기도 안산시 상록구 사동 1573-8</t>
   </si>
   <si>
-    <t>라라분식</t>
-  </si>
-  <si>
     <t>작렬곱창 한양대점</t>
   </si>
   <si>
@@ -1065,18 +818,6 @@
     <t>더빱집</t>
   </si>
   <si>
-    <t>양푼생갈비 상록구청점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1191-15</t>
-  </si>
-  <si>
-    <t>리터퀸커피 안산사동점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1182-4</t>
-  </si>
-  <si>
     <t>투다리 한양대학점</t>
   </si>
   <si>
@@ -1086,18 +827,6 @@
     <t>경기도 안산시 상록구 사동 1155-5</t>
   </si>
   <si>
-    <t>모박사부대찌개 상록점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1184-3</t>
-  </si>
-  <si>
-    <t>늘봄탕탕</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1348-6</t>
-  </si>
-  <si>
     <t>유원치킨</t>
   </si>
   <si>
@@ -1105,18 +834,6 @@
   </si>
   <si>
     <t>경기도 안산시 상록구 사동 1572-6</t>
-  </si>
-  <si>
-    <t>투존치킨 안산1호점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1284-10</t>
-  </si>
-  <si>
-    <t>대관령황태해장국 안산점</t>
-  </si>
-  <si>
-    <t>경기도 안산시 상록구 사동 1182-7</t>
   </si>
   <si>
     <t>rate</t>
@@ -1125,6 +842,354 @@
   <si>
     <t>address</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코이노커피</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1566-4</t>
+  </si>
+  <si>
+    <t>밀플랜비 한양대에리카점</t>
+  </si>
+  <si>
+    <t>치킨,멕시코음식</t>
+  </si>
+  <si>
+    <t>카페,케이크,칵테일바,유니크한,데이트</t>
+  </si>
+  <si>
+    <t>초밥,회덮밥,일식,신선한,장어</t>
+  </si>
+  <si>
+    <t>쌀국수,팟타이,덮밥,오리고기</t>
+  </si>
+  <si>
+    <t>치즈케이크,카페,회덮밥,블루베리,딸기케이크</t>
+  </si>
+  <si>
+    <t>멕시코음식,치킨,야식,데이트,햄버거</t>
+  </si>
+  <si>
+    <t>화덕피자,크림파스타,고르곤졸라,아기자기,신선한</t>
+  </si>
+  <si>
+    <t>카페,로스팅,디저트,데이트,티라미수</t>
+  </si>
+  <si>
+    <t>카페,한지</t>
+  </si>
+  <si>
+    <t>페르크</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1556-2 101호</t>
+  </si>
+  <si>
+    <t>냉짬뽕,찹쌀탕수육,짜장면,수타면,칠리새우</t>
+  </si>
+  <si>
+    <t>정직유부 안산한양대점</t>
+  </si>
+  <si>
+    <t>초밥,롤</t>
+  </si>
+  <si>
+    <t>참치회,초밥,알탕,고급스러운,싱싱한</t>
+  </si>
+  <si>
+    <t>어묵,비빔밥,덮밥,데이트</t>
+  </si>
+  <si>
+    <t>해물칼국수,팥죽,팥칼국수,만두국,바지락</t>
+  </si>
+  <si>
+    <t>육개장,갈비만두,한우,곰탕,만두국</t>
+  </si>
+  <si>
+    <t>카페,디저트,핸드드립,데이트,티라미수</t>
+  </si>
+  <si>
+    <t>케이크,티라미수,카페,디저트,초콜릿</t>
+  </si>
+  <si>
+    <t>닭갈비,떡볶이</t>
+  </si>
+  <si>
+    <t>카페,수제버거,크림파스타,홈메이드,스테이크</t>
+  </si>
+  <si>
+    <t>바지락,칼국수,만두,심플한</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1553</t>
+  </si>
+  <si>
+    <t>육회비빔밥,연어초밥,대게,고급진,팟타이</t>
+  </si>
+  <si>
+    <t>냉면,만두</t>
+  </si>
+  <si>
+    <t>목살스테이크,함박스테이크,데이트,삼겹살</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1271 한양대에리카 컨벤션센터 1층</t>
+  </si>
+  <si>
+    <t>치킨,햄버거</t>
+  </si>
+  <si>
+    <t>카페,팥빙수,샌드위치,케이크,디저트</t>
+  </si>
+  <si>
+    <t>치킨</t>
+  </si>
+  <si>
+    <t>조박사부대찌개 본점</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1572-7 1층</t>
+  </si>
+  <si>
+    <t>부대찌개,냉면</t>
+  </si>
+  <si>
+    <t>칼국수,막걸리,비빔밥</t>
+  </si>
+  <si>
+    <t>틈</t>
+  </si>
+  <si>
+    <t>일식튀김,꼬치</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1570-7</t>
+  </si>
+  <si>
+    <t>찌개찌개</t>
+  </si>
+  <si>
+    <t>셀분식 본점</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1574</t>
+  </si>
+  <si>
+    <t>삐노누아</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1160-1</t>
+  </si>
+  <si>
+    <t>기찬고기 한양대점</t>
+  </si>
+  <si>
+    <t>돼지고기구이</t>
+  </si>
+  <si>
+    <t>UZBEKISTAN</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 해양동 1169 2층</t>
+  </si>
+  <si>
+    <t>김밥천국 한양대점</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1570-5</t>
+  </si>
+  <si>
+    <t>쌈앤쌈</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1558-3</t>
+  </si>
+  <si>
+    <t>소확행피자 안산점</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1581-2 1층 일부(사동)</t>
+  </si>
+  <si>
+    <t>참숯연기삼겹살</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1569-5 라라캠퍼스 104, 105호</t>
+  </si>
+  <si>
+    <t>파리바게뜨 안산한양대점</t>
+  </si>
+  <si>
+    <t>은성밥차</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1169-1</t>
+  </si>
+  <si>
+    <t>이가원수제비</t>
+  </si>
+  <si>
+    <t>바람부는풍차</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1558-3 2층</t>
+  </si>
+  <si>
+    <t>떼드떼 한양대점</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1564-3</t>
+  </si>
+  <si>
+    <t>한판포차</t>
+  </si>
+  <si>
+    <t>포장마차</t>
+  </si>
+  <si>
+    <t>닭치고 낙곱새</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1157 1층</t>
+  </si>
+  <si>
+    <t>칠성포차 안산한양대점</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1569-5 1층</t>
+  </si>
+  <si>
+    <t>찜닭,포장마차,주먹밥,치킨</t>
+  </si>
+  <si>
+    <t>동아리식당</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1151-3</t>
+  </si>
+  <si>
+    <t>딴들치</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1167 102호</t>
+  </si>
+  <si>
+    <t>코리엔탈깻잎두마리치킨 안산한양대점</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1569-2 한성빌딩 107호, 108호</t>
+  </si>
+  <si>
+    <t>커피내리는그림쟁이</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1580</t>
+  </si>
+  <si>
+    <t>카페윈드밀</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 해양동 1149-20 1층상가</t>
+  </si>
+  <si>
+    <t>카페,로스팅</t>
+  </si>
+  <si>
+    <t>라이크잇</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1151-6</t>
+  </si>
+  <si>
+    <t>돼지우리</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1569-6</t>
+  </si>
+  <si>
+    <t>걸리비어여행기 한양대점</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1568</t>
+  </si>
+  <si>
+    <t>뽕s</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1149-9</t>
+  </si>
+  <si>
+    <t>임페리아차이호나베이커리카페</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1155-8</t>
+  </si>
+  <si>
+    <t>삼겹토핑 국물닭발</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동  1569</t>
+  </si>
+  <si>
+    <t>먹방주유소</t>
+  </si>
+  <si>
+    <t>북촌손만두 안산한양대점</t>
+  </si>
+  <si>
+    <t>오봉자싸롱 한양대점</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1567-8</t>
+  </si>
+  <si>
+    <t>청포도맥주,생맥주</t>
+  </si>
+  <si>
+    <t>빅보이 떡볶이</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1155-9</t>
+  </si>
+  <si>
+    <t>커피온리 안산한양대점</t>
+  </si>
+  <si>
+    <t>닭요남</t>
+  </si>
+  <si>
+    <t>닭요리</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1167-1</t>
+  </si>
+  <si>
+    <t>역전할머니맥주 안산한양대점</t>
+  </si>
+  <si>
+    <t>Bunker2</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1152 석호상가 1호</t>
+  </si>
+  <si>
+    <t>제이에스펍</t>
+  </si>
+  <si>
+    <t>바(BAR)</t>
+  </si>
+  <si>
+    <t>우리동네커피공장</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동 1571-3</t>
+  </si>
+  <si>
+    <t>김가네경인한대점</t>
+  </si>
+  <si>
+    <t>경기도 안산시 상록구 사동  1149-1</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1571,7 @@
   <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1519,16 +1584,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>361</v>
+        <v>267</v>
       </c>
       <c r="E1" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1536,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
@@ -1554,13 +1619,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -1572,13 +1637,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1590,13 +1655,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1608,49 +1673,53 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -1662,67 +1731,73 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -1734,13 +1809,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
@@ -1752,31 +1827,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
@@ -1788,31 +1865,33 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
@@ -1824,31 +1903,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -1860,13 +1941,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -1878,13 +1959,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -1896,31 +1977,33 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -1932,13 +2015,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -1950,13 +2033,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -1968,13 +2051,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>180</v>
+        <v>281</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -1986,13 +2069,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -2004,13 +2087,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -2022,31 +2105,33 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -2058,13 +2143,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
@@ -2076,13 +2161,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="E32" s="1">
         <v>3</v>
@@ -2094,49 +2179,53 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
@@ -2148,13 +2237,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -2166,13 +2255,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
@@ -2184,13 +2273,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
@@ -2202,13 +2291,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -2220,31 +2309,33 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
@@ -2256,31 +2347,33 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
@@ -2292,13 +2385,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
@@ -2310,13 +2403,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="E45" s="1">
         <v>3</v>
@@ -2328,13 +2421,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
@@ -2346,13 +2439,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
@@ -2364,31 +2457,33 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -2400,13 +2495,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -2418,13 +2513,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -2436,31 +2531,33 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -2472,13 +2569,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -2490,31 +2587,33 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -2526,13 +2625,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="E57" s="1">
         <v>3</v>
@@ -2544,31 +2643,33 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
@@ -2580,13 +2681,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -2598,13 +2699,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -2616,13 +2717,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="E62" s="1">
         <v>3</v>
@@ -2634,13 +2735,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
@@ -2652,13 +2753,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
@@ -2669,14 +2770,14 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>93</v>
+      <c r="B65" s="2">
+        <v>31.7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
@@ -2688,31 +2789,33 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -2724,31 +2827,33 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
       </c>
-      <c r="F68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="E69" s="1">
         <v>3</v>
@@ -2760,67 +2865,73 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="E70" s="1">
         <v>3</v>
       </c>
-      <c r="F70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E71" s="1">
         <v>3</v>
       </c>
-      <c r="F71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="E72" s="1">
         <v>3</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="E73" s="1">
         <v>3</v>
@@ -2832,13 +2943,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>53</v>
+        <v>298</v>
       </c>
       <c r="E74" s="1">
         <v>3</v>
@@ -2850,31 +2961,33 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="E75" s="1">
         <v>3</v>
       </c>
-      <c r="F75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -2885,14 +2998,14 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
-        <v>31.7</v>
+      <c r="B77" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
@@ -2904,13 +3017,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -2922,13 +3035,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="E79" s="1">
         <v>3</v>
@@ -2940,13 +3053,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
@@ -2958,13 +3071,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
@@ -2976,13 +3089,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
@@ -2994,13 +3107,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="E83" s="1">
         <v>3</v>
@@ -3012,13 +3125,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -3030,13 +3143,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
@@ -3048,31 +3161,33 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E86" s="1">
         <v>3</v>
       </c>
-      <c r="F86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E87" s="1">
         <v>3</v>
@@ -3084,13 +3199,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E88" s="1">
         <v>3</v>
@@ -3102,13 +3217,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="E89" s="1">
         <v>3</v>
@@ -3120,13 +3235,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="E90" s="1">
         <v>3</v>
@@ -3138,13 +3253,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>259</v>
+        <v>106</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="E91" s="1">
         <v>3</v>
@@ -3156,13 +3271,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>262</v>
+        <v>105</v>
       </c>
       <c r="E92" s="1">
         <v>3</v>
@@ -3174,13 +3289,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -3192,13 +3307,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>268</v>
+        <v>42</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
@@ -3210,13 +3325,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
@@ -3228,31 +3343,33 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
       </c>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>272</v>
+        <v>33</v>
       </c>
       <c r="E97" s="1">
         <v>3</v>
@@ -3264,13 +3381,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
@@ -3282,13 +3399,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
@@ -3300,13 +3417,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -3318,13 +3435,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="E101" s="1">
         <v>3</v>
@@ -3336,13 +3453,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>267</v>
+        <v>86</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
@@ -3354,13 +3471,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>284</v>
+        <v>155</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -3372,13 +3489,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="E104" s="1">
         <v>3</v>
@@ -3390,13 +3507,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
@@ -3408,13 +3525,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
@@ -3426,13 +3543,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>289</v>
+        <v>157</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
@@ -3444,49 +3561,53 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
       </c>
-      <c r="F108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>293</v>
+        <v>93</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>295</v>
+        <v>33</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
       </c>
-      <c r="F109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
@@ -3498,13 +3619,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>296</v>
+        <v>85</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="E111" s="1">
         <v>3</v>
@@ -3516,13 +3637,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="E112" s="1">
         <v>3</v>
@@ -3534,13 +3655,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E113" s="1">
         <v>3</v>
@@ -3552,13 +3673,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>111</v>
+        <v>309</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="E114" s="1">
         <v>3</v>
@@ -3570,13 +3691,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>302</v>
+        <v>96</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>303</v>
+        <v>98</v>
       </c>
       <c r="E115" s="1">
         <v>3</v>
@@ -3588,13 +3709,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>304</v>
+        <v>72</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
@@ -3606,13 +3727,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E117" s="1">
         <v>3</v>
@@ -3624,13 +3745,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>309</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E118" s="1">
         <v>3</v>
@@ -3642,13 +3763,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>311</v>
+        <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>312</v>
+        <v>27</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
@@ -3660,13 +3781,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E120" s="1">
         <v>3</v>
@@ -3678,13 +3799,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -3696,13 +3817,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="E122" s="1">
         <v>3</v>
@@ -3714,13 +3835,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>109</v>
+        <v>317</v>
       </c>
       <c r="E123" s="1">
         <v>3</v>
@@ -3732,13 +3853,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>103</v>
+        <v>318</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="E124" s="1">
         <v>3</v>
@@ -3750,13 +3871,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="E125" s="1">
         <v>3</v>
@@ -3768,13 +3889,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="E126" s="1">
         <v>3</v>
@@ -3786,13 +3907,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="E127" s="1">
         <v>3</v>
@@ -3804,13 +3925,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="E128" s="1">
         <v>3</v>
@@ -3822,13 +3943,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>22</v>
+        <v>323</v>
       </c>
       <c r="E129" s="1">
         <v>3</v>
@@ -3840,13 +3961,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>323</v>
+        <v>92</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>324</v>
+        <v>90</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>325</v>
+        <v>33</v>
       </c>
       <c r="E130" s="1">
         <v>3</v>
@@ -3858,13 +3979,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>114</v>
+        <v>324</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>49</v>
+        <v>315</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="E131" s="1">
         <v>3</v>
@@ -3876,13 +3997,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>117</v>
+        <v>326</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="E132" s="1">
         <v>3</v>
@@ -3894,13 +4015,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="E133" s="1">
         <v>3</v>
@@ -3912,13 +4033,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>327</v>
+        <v>98</v>
       </c>
       <c r="E134" s="1">
         <v>3</v>
@@ -3930,13 +4051,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>329</v>
+        <v>141</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E135" s="1">
         <v>3</v>
@@ -3948,13 +4069,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E136" s="1">
         <v>3</v>
@@ -3966,13 +4087,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>128</v>
+        <v>335</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="E137" s="1">
         <v>3</v>
@@ -3984,13 +4105,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E138" s="1">
         <v>3</v>
@@ -4002,31 +4123,33 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>99</v>
+        <v>338</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="E139" s="1">
         <v>3</v>
       </c>
-      <c r="F139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>104</v>
+        <v>341</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="E140" s="1">
         <v>3</v>
@@ -4038,13 +4161,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>337</v>
+        <v>69</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E141" s="1">
         <v>3</v>
@@ -4056,13 +4179,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="E142" s="1">
         <v>3</v>
@@ -4074,13 +4197,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>126</v>
+        <v>347</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>127</v>
+        <v>348</v>
       </c>
       <c r="E143" s="1">
         <v>3</v>
@@ -4092,31 +4215,33 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>178</v>
+        <v>350</v>
       </c>
       <c r="E144" s="1">
         <v>3</v>
       </c>
-      <c r="F144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>31</v>
+        <v>353</v>
       </c>
       <c r="E145" s="1">
         <v>3</v>
@@ -4128,13 +4253,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>52</v>
+        <v>315</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="E146" s="1">
         <v>3</v>
@@ -4146,13 +4271,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>60</v>
+        <v>356</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>31</v>
+        <v>357</v>
       </c>
       <c r="E147" s="1">
         <v>3</v>
@@ -4164,13 +4289,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>115</v>
+        <v>358</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>116</v>
+        <v>359</v>
       </c>
       <c r="E148" s="1">
         <v>3</v>
@@ -4182,13 +4307,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>74</v>
+        <v>361</v>
       </c>
       <c r="E149" s="1">
         <v>3</v>
@@ -4200,13 +4325,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="E150" s="1">
         <v>3</v>
@@ -4218,13 +4343,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>347</v>
+        <v>91</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="E151" s="1">
         <v>3</v>
@@ -4236,13 +4361,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>350</v>
+        <v>71</v>
       </c>
       <c r="E152" s="1">
         <v>3</v>
@@ -4254,31 +4379,33 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="E153" s="1">
         <v>3</v>
       </c>
-      <c r="F153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>203</v>
+        <v>370</v>
       </c>
       <c r="E154" s="1">
         <v>3</v>
@@ -4290,13 +4417,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>90</v>
+        <v>371</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E155" s="1">
         <v>3</v>
@@ -4308,13 +4435,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>267</v>
+        <v>373</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="E156" s="1">
         <v>3</v>
@@ -4326,13 +4453,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="E157" s="1">
         <v>3</v>
@@ -4344,13 +4471,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>123</v>
+        <v>376</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>124</v>
+        <v>377</v>
       </c>
       <c r="E158" s="1">
         <v>3</v>
@@ -4362,13 +4489,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>39</v>
+        <v>379</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="E159" s="1">
         <v>3</v>
@@ -4380,13 +4507,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="E160" s="1">
         <v>3</v>
@@ -4398,13 +4525,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="E161" s="1">
         <v>3</v>
@@ -4414,166 +4541,166 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1856342305" xr:uid="{DA9A7F34-4484-48A0-B51F-F04E6931D051}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18036408" xr:uid="{01390D50-B760-4705-BA07-9F9D2A512C9D}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1445045905" xr:uid="{CAD83DA0-9675-4170-8110-CBD1A4E7208D}"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/33102397" xr:uid="{DF8D7C0B-3C5C-42E9-8B41-86CC9933B19E}"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/19978528" xr:uid="{3F1A9EDF-B10F-4BA9-81BE-6B433334A94B}"/>
-    <hyperlink ref="B7" r:id="rId6" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1375980272" xr:uid="{C65B40E5-D884-4D0D-B4C2-B4A24D342CB8}"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/37762082" xr:uid="{52E78D12-DAA0-48B5-9A3B-4EA48CDEA3AF}"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1412592080" xr:uid="{D997F513-094A-4277-A895-35AB8AEA1AAD}"/>
-    <hyperlink ref="B10" r:id="rId9" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1314839152" xr:uid="{7BDF2BF7-F92F-41C2-AD9D-6F27D0F6DF40}"/>
-    <hyperlink ref="B11" r:id="rId10" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1502861403" xr:uid="{FB2B21B4-AF0B-45B7-9ABD-30A563D6349F}"/>
-    <hyperlink ref="B12" r:id="rId11" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1208094358" xr:uid="{932009A2-1434-4872-82E5-EE5FD416E545}"/>
-    <hyperlink ref="B13" r:id="rId12" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1122816058" xr:uid="{E1F69234-0E83-4703-B1F4-1024258856E1}"/>
-    <hyperlink ref="B14" r:id="rId13" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1306686118" xr:uid="{9A343A02-A092-49CA-A5E9-6FD3C018B2DD}"/>
-    <hyperlink ref="B15" r:id="rId14" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/20498658" xr:uid="{D1C9EF21-4302-4E58-8C27-273D5D0A8FA0}"/>
-    <hyperlink ref="B16" r:id="rId15" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1719733610" xr:uid="{EFBDACFB-CD2A-41EA-BE9E-C9FF5D7EE34D}"/>
-    <hyperlink ref="B17" r:id="rId16" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1885164177" xr:uid="{69ED49D3-8F05-493F-B17B-A653E9E7F263}"/>
-    <hyperlink ref="B18" r:id="rId17" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1738048166" xr:uid="{4FCC09E8-7456-4519-AB5F-49F507F64892}"/>
-    <hyperlink ref="B19" r:id="rId18" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1537467087" xr:uid="{C36B7008-7AC5-414B-98EE-C753AD1ADBEC}"/>
-    <hyperlink ref="B20" r:id="rId19" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1723374709" xr:uid="{01454104-C163-426A-80E9-F31F98DCABC0}"/>
-    <hyperlink ref="B21" r:id="rId20" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/31613125" xr:uid="{5E7E4737-3A7F-464E-894C-F4D39E80653B}"/>
-    <hyperlink ref="B22" r:id="rId21" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1945055535" xr:uid="{E72C886C-1B94-4A9E-894F-D20241531262}"/>
-    <hyperlink ref="B23" r:id="rId22" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1464770021" xr:uid="{79199512-0311-45AF-86FA-1C6BFE4BD49F}"/>
-    <hyperlink ref="B24" r:id="rId23" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/33232907" xr:uid="{2DCB3B50-7464-4401-9DCD-87D659E9EF45}"/>
-    <hyperlink ref="B25" r:id="rId24" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/34551598" xr:uid="{DCB14734-E2C0-47F1-966D-F6C79FB03904}"/>
-    <hyperlink ref="B26" r:id="rId25" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1873407891" xr:uid="{4F04A507-807F-4706-B0FF-217048E5D337}"/>
-    <hyperlink ref="B27" r:id="rId26" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/36004333" xr:uid="{E7AA248F-3D62-43A5-80E2-3079D47EB2F4}"/>
-    <hyperlink ref="B28" r:id="rId27" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/33239471" xr:uid="{D914B719-B221-41FB-81EF-881EC1C1B9FB}"/>
-    <hyperlink ref="B29" r:id="rId28" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1991715055" xr:uid="{5E6097E8-BE73-459A-B4DB-05FF06218BDD}"/>
-    <hyperlink ref="B30" r:id="rId29" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1488545308" xr:uid="{407F9F95-B133-4E6A-9197-578EBE491BC8}"/>
-    <hyperlink ref="B31" r:id="rId30" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/37988449" xr:uid="{2B50A7E1-0F43-42F4-A91C-CED3DBB18422}"/>
-    <hyperlink ref="B32" r:id="rId31" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/333625605" xr:uid="{C1F9BC92-8368-429D-A8AF-1DAB32E60CC1}"/>
-    <hyperlink ref="B33" r:id="rId32" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1991706879" xr:uid="{27A2FC51-2D31-4B26-9596-5A824E363BAF}"/>
-    <hyperlink ref="B34" r:id="rId33" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1150892208" xr:uid="{834FAAF7-5916-4E70-91E3-39B39896E0FC}"/>
-    <hyperlink ref="B35" r:id="rId34" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1760541138" xr:uid="{55DEB226-8A0F-44C1-89D5-8D510C207C8F}"/>
-    <hyperlink ref="B36" r:id="rId35" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1731514083" xr:uid="{891A78F8-2461-46B2-962E-3550A8895F71}"/>
-    <hyperlink ref="B37" r:id="rId36" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1895185189" xr:uid="{A7A4F209-2F60-4872-9CC9-35F00C22B64D}"/>
-    <hyperlink ref="B38" r:id="rId37" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1445267958" xr:uid="{08F1C753-D7B2-4733-B88C-446DC1FA1E93}"/>
-    <hyperlink ref="B39" r:id="rId38" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/431346497" xr:uid="{BF66FBD7-96FB-46FF-9067-B8E9315E2CBF}"/>
-    <hyperlink ref="B40" r:id="rId39" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/13320531" xr:uid="{07AD671D-1861-48D1-9938-344872138BE7}"/>
-    <hyperlink ref="B41" r:id="rId40" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/33657511" xr:uid="{79907109-0A0A-48E3-95A2-23ABC094870C}"/>
-    <hyperlink ref="B42" r:id="rId41" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18997964" xr:uid="{915D011E-F147-4918-A5D3-D774C3F4B6D6}"/>
-    <hyperlink ref="B43" r:id="rId42" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/35562083" xr:uid="{06E1AA21-79E1-47C1-B14A-67968DF9EFCA}"/>
-    <hyperlink ref="B44" r:id="rId43" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1203791942" xr:uid="{A883CC19-E40A-472A-8C25-53666CE69E0C}"/>
-    <hyperlink ref="B45" r:id="rId44" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1306636619" xr:uid="{A77B5B31-2267-483E-9306-AFAB07B295B1}"/>
-    <hyperlink ref="B46" r:id="rId45" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/33093076" xr:uid="{8C179659-2869-4FF6-83EE-B3841CDE1711}"/>
-    <hyperlink ref="B47" r:id="rId46" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1629845763" xr:uid="{D586ECD3-9129-4969-9D99-9A1479F4CBA7}"/>
-    <hyperlink ref="B48" r:id="rId47" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18093736" xr:uid="{545F0E6E-B7C8-4DDA-9F09-ADF5707E7139}"/>
-    <hyperlink ref="B49" r:id="rId48" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/33085489" xr:uid="{3D410418-1B94-4761-B4E7-7FB2699BD1B8}"/>
-    <hyperlink ref="B50" r:id="rId49" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1924133631" xr:uid="{8A6194B0-C227-438F-B0C2-542393F3CED3}"/>
-    <hyperlink ref="B51" r:id="rId50" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1240099865" xr:uid="{9B216A72-32B9-4F1B-A7CA-21C561ECFF73}"/>
-    <hyperlink ref="B52" r:id="rId51" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/20023434" xr:uid="{8B56826B-4E79-419B-88F5-08000E7BC02C}"/>
-    <hyperlink ref="B53" r:id="rId52" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1672244614" xr:uid="{37148124-C527-4E51-B48B-C56745396209}"/>
-    <hyperlink ref="B54" r:id="rId53" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/33028300" xr:uid="{0702FF73-3A03-48A6-B3E1-96B8320E8A1E}"/>
-    <hyperlink ref="B55" r:id="rId54" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1857974547" xr:uid="{26502BB9-2AA7-42E8-BC04-B2C5022E914E}"/>
-    <hyperlink ref="B56" r:id="rId55" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1101037693" xr:uid="{E7E170DF-B6A8-4EFD-BFC3-321838667496}"/>
-    <hyperlink ref="B57" r:id="rId56" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18036031" xr:uid="{466CC932-2074-4A62-8322-0DD75D949B26}"/>
-    <hyperlink ref="B58" r:id="rId57" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/37293558" xr:uid="{4D204DF0-F902-4DAB-A2CA-2ED0FDD61850}"/>
-    <hyperlink ref="B59" r:id="rId58" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1090842462" xr:uid="{308D3D79-7583-470B-A759-2CB621D3C056}"/>
-    <hyperlink ref="B60" r:id="rId59" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1595217923" xr:uid="{306B591B-FD1D-434A-8327-7B51B9E341DF}"/>
-    <hyperlink ref="B61" r:id="rId60" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1052958483" xr:uid="{4B9910D8-B588-4B33-80DA-1E751A7ECCBE}"/>
-    <hyperlink ref="B62" r:id="rId61" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/12018418" xr:uid="{4326BE02-C4B8-461E-A242-5ACE5425D4C4}"/>
-    <hyperlink ref="B63" r:id="rId62" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/31364225" xr:uid="{F6212794-5CF7-4800-A4AB-65E02E70F125}"/>
-    <hyperlink ref="B64" r:id="rId63" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18095648" xr:uid="{42248096-7563-4708-B3A5-267FB44350A1}"/>
-    <hyperlink ref="B65" r:id="rId64" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/21295486" xr:uid="{DB91BFA0-E1FD-453F-9871-63AF3D011C0B}"/>
-    <hyperlink ref="B66" r:id="rId65" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/33874866" xr:uid="{9950BF8E-9CF0-4490-8D7E-119EC4DE68FB}"/>
-    <hyperlink ref="B67" r:id="rId66" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/37835450" xr:uid="{BA2B809D-C875-4001-86DE-EBF5B23C5BF7}"/>
-    <hyperlink ref="B68" r:id="rId67" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/11802151" xr:uid="{7D4543BA-1CB7-4299-9043-5AE3016377A0}"/>
-    <hyperlink ref="B69" r:id="rId68" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1334444503" xr:uid="{920FFEB0-4E47-4164-9B9D-F701933FB56D}"/>
-    <hyperlink ref="B70" r:id="rId69" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18092004" xr:uid="{1911E7AD-BECD-47E5-A0FE-7309B8775FEF}"/>
-    <hyperlink ref="B71" r:id="rId70" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/13033437" xr:uid="{B64C70A5-C959-46D3-9F8C-1D3FF56CEDCD}"/>
-    <hyperlink ref="B72" r:id="rId71" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18039857" xr:uid="{50E71AE1-B84C-4EBF-8F37-C0AB6817EA66}"/>
-    <hyperlink ref="B73" r:id="rId72" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/667911418" xr:uid="{9EF9161A-F0A4-43F8-A8C1-C9877D375508}"/>
-    <hyperlink ref="B74" r:id="rId73" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1718442729" xr:uid="{201FEAF8-82D7-4CE4-8028-4486C03E5DB1}"/>
-    <hyperlink ref="B75" r:id="rId74" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18036061" xr:uid="{303B0D90-C1E4-47A2-BD15-64608386F147}"/>
-    <hyperlink ref="B76" r:id="rId75" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18091690" xr:uid="{19DAFDC9-E090-4EE7-9D76-9AB4412FF2DF}"/>
-    <hyperlink ref="B77" r:id="rId76" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1041193231" xr:uid="{40D200E4-52EF-4C2D-8CDD-754BD97926CE}"/>
-    <hyperlink ref="B78" r:id="rId77" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/38623757" xr:uid="{E8C59381-7CE1-4719-AD5C-BAC66DAE4E9D}"/>
-    <hyperlink ref="B79" r:id="rId78" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/20697187" xr:uid="{6DF0A196-D89A-46B8-9EEF-D8F2A0D929C9}"/>
-    <hyperlink ref="B80" r:id="rId79" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1737903396" xr:uid="{58F46248-B406-466B-86C2-A8C8B9221270}"/>
-    <hyperlink ref="B81" r:id="rId80" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1162015832" xr:uid="{A9BE495A-7E23-4974-B490-805C7FC3B854}"/>
-    <hyperlink ref="B82" r:id="rId81" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1887746276" xr:uid="{FCA864F7-3E63-4B66-9924-E52BC898DAC6}"/>
-    <hyperlink ref="B83" r:id="rId82" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1465461731" xr:uid="{EB88BAD9-A95B-4C6D-99D8-7573B1E4BD9B}"/>
-    <hyperlink ref="B84" r:id="rId83" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/34959570" xr:uid="{ABD7D3BA-F847-44A5-A9CD-9F555D94ECAC}"/>
-    <hyperlink ref="B85" r:id="rId84" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1493342480" xr:uid="{DC224D8E-68D1-47CF-8AB9-F2F8ADD890D2}"/>
-    <hyperlink ref="B86" r:id="rId85" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1995228733" xr:uid="{D44FB9DF-57B6-41D2-9A0B-C87520AEC23E}"/>
-    <hyperlink ref="B87" r:id="rId86" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/11878749" xr:uid="{A5F759A8-1BED-4008-A56D-2CF69A1FC83A}"/>
-    <hyperlink ref="B88" r:id="rId87" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1134738022" xr:uid="{4FFAA27F-9DF2-4E54-B74B-3CD4DCDFBC77}"/>
-    <hyperlink ref="B89" r:id="rId88" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/933442892" xr:uid="{12E0D23D-43D8-45FB-95E8-9ACCF993586B}"/>
-    <hyperlink ref="B90" r:id="rId89" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1862315922" xr:uid="{22C45715-1442-47BB-84D2-307E1F98C1B9}"/>
-    <hyperlink ref="B91" r:id="rId90" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/33093092" xr:uid="{6F6D7DDC-CA65-4C7F-AFB9-7F68341DB100}"/>
-    <hyperlink ref="B92" r:id="rId91" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1431423055" xr:uid="{072FC849-AEC4-4572-8E12-94AB4CA9EC34}"/>
-    <hyperlink ref="B93" r:id="rId92" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18092220" xr:uid="{D21A19C0-2C74-42C5-8D89-99C1D8058DDA}"/>
-    <hyperlink ref="B94" r:id="rId93" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1809777099" xr:uid="{859D85FA-D57F-437A-A2FA-631678740D11}"/>
-    <hyperlink ref="B95" r:id="rId94" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1851901858" xr:uid="{73CDA5F4-EE04-4B96-9240-E25756434766}"/>
-    <hyperlink ref="B96" r:id="rId95" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/33085358" xr:uid="{10B9D380-0153-4C83-9135-B9CF1D24C2FE}"/>
-    <hyperlink ref="B97" r:id="rId96" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1745187035" xr:uid="{CCB8BBD4-F0B8-4DB6-8E63-E258F3BFC337}"/>
-    <hyperlink ref="B98" r:id="rId97" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/13030761" xr:uid="{40DFF90E-71DA-42E9-AC9C-C24AD077E228}"/>
-    <hyperlink ref="B99" r:id="rId98" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1104289471" xr:uid="{6695A260-6C21-4680-A958-06514F0AB27C}"/>
-    <hyperlink ref="B100" r:id="rId99" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/37765725" xr:uid="{A9131FE1-6E65-4EAF-9DC7-9A88B417D53B}"/>
-    <hyperlink ref="B101" r:id="rId100" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1536728665" xr:uid="{21B69B44-AB96-4F34-9A6F-40BDB3257FB0}"/>
-    <hyperlink ref="B102" r:id="rId101" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1862372832" xr:uid="{2617F390-23C2-4AB6-A7A4-89E7C0896936}"/>
-    <hyperlink ref="B103" r:id="rId102" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1809182169" xr:uid="{3D2F4D76-FE58-49E8-9E69-D33D3AF02477}"/>
-    <hyperlink ref="B104" r:id="rId103" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1585897851" xr:uid="{F7B56B2B-C4A2-4C70-AE04-9113D18EC2C4}"/>
-    <hyperlink ref="B105" r:id="rId104" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1397491180" xr:uid="{E4744EEF-9E82-4040-A054-71401FD05A7B}"/>
-    <hyperlink ref="B106" r:id="rId105" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/496793522" xr:uid="{7FC18C3B-4F62-477B-8D79-150DEE0EFBE8}"/>
-    <hyperlink ref="B107" r:id="rId106" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/21764507" xr:uid="{46332E1C-0B12-438F-9AB4-8FE1A862C123}"/>
-    <hyperlink ref="B108" r:id="rId107" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18999169" xr:uid="{24E7F062-5334-48A2-8CFD-6316BF3A9B2A}"/>
-    <hyperlink ref="B109" r:id="rId108" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/32133150" xr:uid="{F2A8C124-4551-483D-A541-D60108FAFC2F}"/>
-    <hyperlink ref="B110" r:id="rId109" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1078743359" xr:uid="{320CA37A-B8BB-4781-89E3-0FC0B05B3352}"/>
-    <hyperlink ref="B111" r:id="rId110" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1892520428" xr:uid="{3D0D0648-78C4-4115-B4A7-96F98F4BEF15}"/>
-    <hyperlink ref="B112" r:id="rId111" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1225040677" xr:uid="{6C5EDAD2-A86A-4D46-9A1D-E8A4EB6D4F2E}"/>
-    <hyperlink ref="B113" r:id="rId112" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1668343378" xr:uid="{FFEFD6F3-7F24-4A1A-9E78-8AC27158D0A5}"/>
-    <hyperlink ref="B114" r:id="rId113" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1724671945" xr:uid="{1ABA76C4-7AFC-4A19-9CCA-EE25F4007499}"/>
-    <hyperlink ref="B115" r:id="rId114" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1184465550" xr:uid="{CA0E2BFE-DCCC-4D3E-85B7-62737E087F93}"/>
-    <hyperlink ref="B116" r:id="rId115" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/37132924" xr:uid="{886845FB-06EE-452A-9BC8-2DF2F3F5B64B}"/>
-    <hyperlink ref="B117" r:id="rId116" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1372115266" xr:uid="{6597ADF3-E170-4DCF-AF48-1135B4994ACB}"/>
-    <hyperlink ref="B118" r:id="rId117" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/19377361" xr:uid="{950D9B27-88F0-4E21-90BE-E5DE3BE544AF}"/>
-    <hyperlink ref="B119" r:id="rId118" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1319386238" xr:uid="{F504CD91-5D92-4FAF-81A0-26EFB2703708}"/>
-    <hyperlink ref="B120" r:id="rId119" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1996406243" xr:uid="{61A8EA9B-3551-43C4-89EB-D33E7D9D569F}"/>
-    <hyperlink ref="B121" r:id="rId120" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1303110586" xr:uid="{DCB77031-AB81-4138-BB2F-7B8BB9B7AF07}"/>
-    <hyperlink ref="B122" r:id="rId121" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/716813478" xr:uid="{BA4C4F31-5EF8-488D-922C-A7780D28A0A9}"/>
-    <hyperlink ref="B123" r:id="rId122" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1994558640" xr:uid="{E77EA9CD-8A5C-4B87-A290-27487FE7F11B}"/>
-    <hyperlink ref="B124" r:id="rId123" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1136154020" xr:uid="{24C306B8-5922-49FA-933C-CE721BDEC33F}"/>
-    <hyperlink ref="B125" r:id="rId124" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/13494903" xr:uid="{94F27F39-C04B-4B6E-B4A9-9786EB66F788}"/>
-    <hyperlink ref="B126" r:id="rId125" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1443009675" xr:uid="{7D09BF88-595E-4F9B-AFC8-48E5A9C25FAB}"/>
-    <hyperlink ref="B127" r:id="rId126" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/127486606" xr:uid="{7CB38708-5F94-410B-8EB0-C8987E0F4E39}"/>
-    <hyperlink ref="B128" r:id="rId127" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1569600230" xr:uid="{D721FFF7-E2FB-4BE6-9FF9-14F80FDC0374}"/>
-    <hyperlink ref="B129" r:id="rId128" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18036839" xr:uid="{4FCE65D2-0392-4C4A-9566-A50517F1BA8C}"/>
-    <hyperlink ref="B130" r:id="rId129" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1549490521" xr:uid="{107EFA41-E238-4EC1-BD06-26B9AED00FA0}"/>
-    <hyperlink ref="B131" r:id="rId130" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/36948479" xr:uid="{F85ABC98-99E7-49B5-BD20-FED19854892E}"/>
-    <hyperlink ref="B132" r:id="rId131" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1083319174" xr:uid="{1A46B50E-51AF-4BE8-B7E1-2311026AE7EB}"/>
-    <hyperlink ref="B133" r:id="rId132" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1551724881" xr:uid="{9FB4CB97-545C-4613-869C-B429EB362B70}"/>
-    <hyperlink ref="B134" r:id="rId133" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/197732107" xr:uid="{4CC3B649-FFF9-467F-90EB-2EE35E7C3F59}"/>
-    <hyperlink ref="B135" r:id="rId134" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1609518956" xr:uid="{BD10DFDC-510E-4C13-BB9D-F19F65FEB916}"/>
-    <hyperlink ref="B136" r:id="rId135" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18093197" xr:uid="{368BD11F-DFC0-43C6-870F-2F0C2D314940}"/>
-    <hyperlink ref="B137" r:id="rId136" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1453600789" xr:uid="{0CEAE258-4B83-443E-AE7C-9BD0BC2C44AA}"/>
-    <hyperlink ref="B138" r:id="rId137" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1742946827" xr:uid="{35481EEC-1179-4237-9454-3D1E49CBDCE3}"/>
-    <hyperlink ref="B139" r:id="rId138" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1134885263" xr:uid="{E2380EA4-3F04-48F0-9299-C2B6E9F2563F}"/>
-    <hyperlink ref="B140" r:id="rId139" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1939322908" xr:uid="{6DB6A4F2-5548-437A-9FBB-B9F07164891D}"/>
-    <hyperlink ref="B141" r:id="rId140" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1407493284" xr:uid="{10164EDB-9FB1-4688-9BA2-6989100E0D7C}"/>
-    <hyperlink ref="B142" r:id="rId141" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1402547653" xr:uid="{2C85406E-373C-4326-8D58-792A97840EC0}"/>
-    <hyperlink ref="B143" r:id="rId142" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1905747585" xr:uid="{681CD426-E42D-4639-9EC1-B35B862E3CA6}"/>
-    <hyperlink ref="B144" r:id="rId143" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1231429412" xr:uid="{5F4A6345-8966-42EE-97CA-F155A6D3034F}"/>
-    <hyperlink ref="B145" r:id="rId144" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18093261" xr:uid="{B26A71F7-7F2A-44A7-9105-7BA8982BFDB3}"/>
-    <hyperlink ref="B146" r:id="rId145" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1789669242" xr:uid="{FBA8385F-9837-4131-ABE8-6CEC8F6DF123}"/>
-    <hyperlink ref="B147" r:id="rId146" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1204655857" xr:uid="{7B2BF0E8-A04E-461D-A260-F9032BD2AD15}"/>
-    <hyperlink ref="B148" r:id="rId147" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/38412336" xr:uid="{ABFE63C3-47D7-4780-987E-EAFD82A40D89}"/>
-    <hyperlink ref="B149" r:id="rId148" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/31611873" xr:uid="{C2399AA9-C1BF-44FA-9203-1B69FF5801C0}"/>
-    <hyperlink ref="B150" r:id="rId149" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/892347056" xr:uid="{79E261DD-71E3-4FF7-9C2F-5509EA763A8A}"/>
-    <hyperlink ref="B151" r:id="rId150" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/37143072" xr:uid="{194F627A-AF3F-442D-9D90-40417A315E55}"/>
-    <hyperlink ref="B152" r:id="rId151" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1399884185" xr:uid="{F2B19E2B-8A69-4096-AE92-EF7479D17985}"/>
-    <hyperlink ref="B153" r:id="rId152" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1644382542" xr:uid="{028992BB-189C-499F-A72A-9270B3B5E74D}"/>
-    <hyperlink ref="B154" r:id="rId153" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18035900" xr:uid="{AE122657-2968-4845-980B-A2F1352ABAD1}"/>
-    <hyperlink ref="B155" r:id="rId154" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/33085538" xr:uid="{66B57A2D-F833-48B4-B784-F0B74144122D}"/>
-    <hyperlink ref="B156" r:id="rId155" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1216355460" xr:uid="{A20AEE7F-69F7-4390-853D-52924DCFDA2F}"/>
-    <hyperlink ref="B157" r:id="rId156" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/37144800" xr:uid="{1130A91A-B60C-48F6-9DC8-2D94260338D6}"/>
-    <hyperlink ref="B158" r:id="rId157" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1692640504" xr:uid="{3A3EFE21-914A-4943-85D4-BE1A86631275}"/>
-    <hyperlink ref="B159" r:id="rId158" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1498562177" xr:uid="{1078CFFD-9700-433E-A3C0-79D25342CBC9}"/>
-    <hyperlink ref="B160" r:id="rId159" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/1350256934" xr:uid="{53E41B52-0C98-408D-9022-11D1337B88F3}"/>
-    <hyperlink ref="B161" r:id="rId160" display="https://map.naver.com/v5/search/한양대학교 에리카 캠퍼스 음식점/place/18093114" xr:uid="{0E9FCCB5-EB29-487A-9AA1-CEE6AA9EC69D}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1445045905" xr:uid="{65AAF5C6-2884-4CBD-AABE-438D4F040A05}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1856342305" xr:uid="{6713B7AD-38B1-4C85-B778-C98CED47B1B7}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1412592080" xr:uid="{80507669-6043-47A5-9751-B5F946F1FC6B}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1918908664" xr:uid="{78A75459-EE27-467E-8AB5-40E06DECD6D2}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33657511" xr:uid="{30158A31-8F67-439C-9001-DB05ECF1942B}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/37762082" xr:uid="{C2E93235-7629-4093-A2E2-F2E24264A456}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1738048166" xr:uid="{F4866C89-6F8C-4BC4-ABFD-3C36412F366A}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/19978528" xr:uid="{E054AF02-7994-4D9B-AB5C-9A07225088F4}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33232907" xr:uid="{B1748513-3777-4F68-9089-63A8009392A4}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33102397" xr:uid="{08D08E4D-5F84-4013-A579-98F6FC81FD68}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1502861403" xr:uid="{10CD2D80-C5ED-4319-9AAE-69D3339507EE}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1723374709" xr:uid="{16D795FD-9650-4A59-B3E8-9906575F5807}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/20498658" xr:uid="{CBB58C9F-03B0-40DF-9FAD-A34AC18BDC31}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1537467087" xr:uid="{3A2408C1-C2CB-45A9-85D7-79EB5CA673EB}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/34551598" xr:uid="{DE893194-9522-4F08-B5BB-57BCFD479281}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1945055535" xr:uid="{88229F57-BFBE-43D0-8C23-361E9D9D043B}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/31613125" xr:uid="{4B2A8F86-E6CD-4376-AC48-8EAD80216EA2}"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1873407891" xr:uid="{9FD6AAAE-CF32-419E-B88D-57A676958CD8}"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1375980272" xr:uid="{F0C370E3-0C25-4D1A-9599-91EB53C472ED}"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1314839152" xr:uid="{C920B437-DAE2-43D1-B864-7FF59A8F1094}"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33239471" xr:uid="{C9D3F336-A4CE-4D3E-913D-32D9A54E12A6}"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1306686118" xr:uid="{DACC5417-7F47-478C-BD66-24AF805E3A63}"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1122816058" xr:uid="{A78AE397-182F-4D5F-A6BD-10CC03A74F1F}"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1895185189" xr:uid="{E5441A99-CBE9-420B-BDBC-6963130AAEB7}"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1746910983" xr:uid="{290F8CAD-C8AB-4414-A9DB-5A815C640CCB}"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1760541138" xr:uid="{5AE28B07-373D-4A40-9578-E3FFE17840E9}"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1991715055" xr:uid="{563DEEE4-0D30-45D7-AA3E-5A05F08C3F56}"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18039857" xr:uid="{4B41F8BF-17AE-4818-8009-D9BD6542BD17}"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1991706879" xr:uid="{203C8FCE-C0FF-4B63-B7EA-1DF4742078E1}"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1464770021" xr:uid="{966EDC95-42E7-4247-A510-25215A0139DF}"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1904459734" xr:uid="{75E395E0-6A6C-46B0-8F05-25AB5E79FC9F}"/>
+    <hyperlink ref="B33" r:id="rId32" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/37988449" xr:uid="{5EA798F6-226B-4D21-B577-6C7CD7976CCB}"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/35562083" xr:uid="{D77E7179-1E02-4930-814D-1F2D24BF2E04}"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1208094358" xr:uid="{E244F7DC-4A32-4F1D-BF6E-DA347D73D811}"/>
+    <hyperlink ref="B36" r:id="rId35" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1150892208" xr:uid="{3274D613-51C6-42D9-98DD-DD5486871C41}"/>
+    <hyperlink ref="B37" r:id="rId36" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1724671945" xr:uid="{41F6A0D3-5DF1-4F01-803D-6B538ECB2474}"/>
+    <hyperlink ref="B38" r:id="rId37" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1672244614" xr:uid="{FC5D88D6-8D68-4C00-B078-325F8FEE1704}"/>
+    <hyperlink ref="B39" r:id="rId38" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1731514083" xr:uid="{74B50A13-77E1-45C6-8473-8A6DEC3DD88C}"/>
+    <hyperlink ref="B40" r:id="rId39" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33085489" xr:uid="{2BE02DF3-DCD1-48BB-B36D-55B2ED5D6640}"/>
+    <hyperlink ref="B41" r:id="rId40" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1203791942" xr:uid="{AE51A3DA-8179-4D47-B2A4-E1CE7E167961}"/>
+    <hyperlink ref="B42" r:id="rId41" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18036031" xr:uid="{159D579B-D0E5-4F11-AB3C-31617A1DEA11}"/>
+    <hyperlink ref="B43" r:id="rId42" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1334444503" xr:uid="{DDD80FF6-E077-4AF9-8DE9-DC912EB76DBA}"/>
+    <hyperlink ref="B44" r:id="rId43" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/333625605" xr:uid="{E388D094-A037-4470-8C54-BFD8B8B0AA91}"/>
+    <hyperlink ref="B45" r:id="rId44" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1052958483" xr:uid="{5C8C0089-F7CA-4044-8B8C-B2D16A3C3D27}"/>
+    <hyperlink ref="B46" r:id="rId45" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1887746276" xr:uid="{EA252898-11D3-475A-9DCF-19CF9F4D0DA4}"/>
+    <hyperlink ref="B47" r:id="rId46" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18997964" xr:uid="{BA4286B2-CEDC-407B-89F9-E6ED673813BB}"/>
+    <hyperlink ref="B48" r:id="rId47" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1924133631" xr:uid="{E2E14032-1114-48C6-924D-D587326BDAC8}"/>
+    <hyperlink ref="B49" r:id="rId48" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1240099865" xr:uid="{7DE1FC4F-2094-45AA-BFF7-62C98065AAFD}"/>
+    <hyperlink ref="B50" r:id="rId49" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1718442729" xr:uid="{A0D73200-7F31-459F-A918-37789C4D6BF5}"/>
+    <hyperlink ref="B51" r:id="rId50" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33028300" xr:uid="{0FC6F17D-013C-4797-9219-03555D9FFBD6}"/>
+    <hyperlink ref="B52" r:id="rId51" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/20697187" xr:uid="{0197399B-4129-4006-8E48-A0E96F0D9EEE}"/>
+    <hyperlink ref="B53" r:id="rId52" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1303110586" xr:uid="{E9B6728E-5DF5-49E4-9D9B-09D3DDAF0F11}"/>
+    <hyperlink ref="B54" r:id="rId53" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1629845763" xr:uid="{26F7BAA4-6169-49EE-931F-7EDAF2720F8E}"/>
+    <hyperlink ref="B55" r:id="rId54" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/20023434" xr:uid="{F735B36E-A2E0-41B5-8254-33130E2C6A41}"/>
+    <hyperlink ref="B56" r:id="rId55" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/667911418" xr:uid="{B9E40622-749D-4A4E-91EE-3716958A63D4}"/>
+    <hyperlink ref="B57" r:id="rId56" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1857974547" xr:uid="{9B3310DD-5149-4068-A22B-C08C38AB1A61}"/>
+    <hyperlink ref="B58" r:id="rId57" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/37293558" xr:uid="{809ACBD1-A247-4E42-BB13-9C1425799B4C}"/>
+    <hyperlink ref="B59" r:id="rId58" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/13033437" xr:uid="{3E97DA09-5CBB-4C6B-8C98-7A679604CF86}"/>
+    <hyperlink ref="B60" r:id="rId59" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/13320531" xr:uid="{1BB81618-AF7A-4076-A301-E589E43F82BA}"/>
+    <hyperlink ref="B61" r:id="rId60" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1737903396" xr:uid="{988C791B-A891-4715-9320-923D7BA0C900}"/>
+    <hyperlink ref="B62" r:id="rId61" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/21295486" xr:uid="{D925C86C-2458-4646-9F5F-2F51A247EF6E}"/>
+    <hyperlink ref="B63" r:id="rId62" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18093197" xr:uid="{E851084C-1276-4704-B30B-8AD50DC185C3}"/>
+    <hyperlink ref="B64" r:id="rId63" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18091690" xr:uid="{A135D4F7-99A2-4CC1-8C7A-3AF71F7DD491}"/>
+    <hyperlink ref="B65" r:id="rId64" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1041193231" xr:uid="{28272A9B-537C-47A6-B748-E6A9A697DB23}"/>
+    <hyperlink ref="B66" r:id="rId65" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33093076" xr:uid="{BFF0AF57-C7C5-49A9-9B4F-4868DF78224E}"/>
+    <hyperlink ref="B67" r:id="rId66" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1862315922" xr:uid="{19F47F90-7AFF-401C-83C2-C9E35D99867D}"/>
+    <hyperlink ref="B68" r:id="rId67" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/496793522" xr:uid="{23B974BB-8A9A-473B-A860-0BF38E3E73C6}"/>
+    <hyperlink ref="B69" r:id="rId68" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1851901858" xr:uid="{6324ADC1-B242-4902-B332-445A088D07CD}"/>
+    <hyperlink ref="B70" r:id="rId69" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/21764507" xr:uid="{C3D3C14E-7FDC-49D8-9517-42D492F40D2E}"/>
+    <hyperlink ref="B71" r:id="rId70" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/36004333" xr:uid="{324729FD-1156-4E25-A160-8C48F2BE9C3D}"/>
+    <hyperlink ref="B72" r:id="rId71" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/431346497" xr:uid="{839CADAE-E25A-4FD2-8A47-C60D6D7898D1}"/>
+    <hyperlink ref="B73" r:id="rId72" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33093092" xr:uid="{35FA0094-DAC8-4C9F-8626-46F13EDEA237}"/>
+    <hyperlink ref="B74" r:id="rId73" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1078743359" xr:uid="{D589AE37-63D8-45E6-8E54-E92826D3B12D}"/>
+    <hyperlink ref="B75" r:id="rId74" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/38623757" xr:uid="{0C7D49FF-ADC4-455B-B312-214DDF78E222}"/>
+    <hyperlink ref="B76" r:id="rId75" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1809777099" xr:uid="{A72FA87D-58C9-4519-BCBD-CBFA0A56122B}"/>
+    <hyperlink ref="B77" r:id="rId76" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18999169" xr:uid="{835A247C-0024-495D-ACE9-91FD4C65AE88}"/>
+    <hyperlink ref="B78" r:id="rId77" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1397491180" xr:uid="{84D93012-557A-4D82-AB31-1528409D3D18}"/>
+    <hyperlink ref="B79" r:id="rId78" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1162015832" xr:uid="{6AD7F0A5-C484-497B-8DED-BF6BFEE7014D}"/>
+    <hyperlink ref="B80" r:id="rId79" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1402547653" xr:uid="{071305D9-8C20-41E0-A24F-E29134F19C49}"/>
+    <hyperlink ref="B81" r:id="rId80" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/32133150" xr:uid="{48DAA8D6-48E1-4A9E-A504-942FEF8D9883}"/>
+    <hyperlink ref="B82" r:id="rId81" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1493342480" xr:uid="{C8F2EB20-6DDF-49E2-A685-7C6AA6E3FA49}"/>
+    <hyperlink ref="B83" r:id="rId82" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/37765725" xr:uid="{8B6F02DA-DC0D-4471-96AA-DDF5257FC0B9}"/>
+    <hyperlink ref="B84" r:id="rId83" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1809182169" xr:uid="{6D8B548C-B033-4E1C-A7C5-D9EC4D1721BF}"/>
+    <hyperlink ref="B85" r:id="rId84" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1668343378" xr:uid="{1C641D77-8A64-4CBB-990E-1E6CB459C9E6}"/>
+    <hyperlink ref="B86" r:id="rId85" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/37132924" xr:uid="{3BB31AA0-D66A-4351-A84C-035A8D7931CA}"/>
+    <hyperlink ref="B87" r:id="rId86" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/19377361" xr:uid="{99C7E246-068B-4F18-8222-54704959464F}"/>
+    <hyperlink ref="B88" r:id="rId87" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1225040677" xr:uid="{95DD73E6-B7D6-441E-BC27-86E3DCBFAA9F}"/>
+    <hyperlink ref="B89" r:id="rId88" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18093261" xr:uid="{C54BCA92-AF1B-4788-8A15-1AB4FC63DF8D}"/>
+    <hyperlink ref="B90" r:id="rId89" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18036839" xr:uid="{E7881296-C8D4-4A6F-B09A-CF12D42FF0C5}"/>
+    <hyperlink ref="B91" r:id="rId90" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1083319174" xr:uid="{454E591E-1181-437F-9D22-C874AE6FAF1C}"/>
+    <hyperlink ref="B92" r:id="rId91" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/38412336" xr:uid="{6B5A2E23-7B97-4E6D-AED4-90B26F2A59E9}"/>
+    <hyperlink ref="B93" r:id="rId92" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1569600230" xr:uid="{6F39C5B9-37CF-4B82-892A-8086BD1AE3AC}"/>
+    <hyperlink ref="B94" r:id="rId93" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1136154020" xr:uid="{FE7E6505-2185-46EF-93ED-EB6637405203}"/>
+    <hyperlink ref="B95" r:id="rId94" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1101037693" xr:uid="{3A9AC2D0-8245-4E3C-89CB-B4140E17198A}"/>
+    <hyperlink ref="B96" r:id="rId95" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33874866" xr:uid="{C9C20945-437C-4879-BCA5-C624B3B4599E}"/>
+    <hyperlink ref="B97" r:id="rId96" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1551724881" xr:uid="{117BBECF-DB00-4B1E-B429-C25600BC304A}"/>
+    <hyperlink ref="B98" r:id="rId97" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1892520428" xr:uid="{41BA5932-A799-45D6-9861-B2D2A662AA81}"/>
+    <hyperlink ref="B99" r:id="rId98" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/31611873" xr:uid="{59890412-C1DC-4408-9D32-585AC7A631D6}"/>
+    <hyperlink ref="B100" r:id="rId99" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/197732107" xr:uid="{4CA63FDD-92A6-48D8-B7EE-2103F3B8090F}"/>
+    <hyperlink ref="B101" r:id="rId100" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/36948479" xr:uid="{77D8A4CF-DFB0-491A-B72C-609533B70E96}"/>
+    <hyperlink ref="B102" r:id="rId101" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/127486606" xr:uid="{94C5DA2D-0AF4-4B92-81FB-38C93E5CA4F5}"/>
+    <hyperlink ref="B103" r:id="rId102" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1862372832" xr:uid="{D64DE94A-DCE7-4429-9EA1-C527FC0B23CB}"/>
+    <hyperlink ref="B104" r:id="rId103" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/37143072" xr:uid="{CC8886E9-68FE-42E9-868B-3130B7BE3952}"/>
+    <hyperlink ref="B105" r:id="rId104" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1216355460" xr:uid="{492B4A17-A8FB-4C5F-BDB4-7E39CA42C9D7}"/>
+    <hyperlink ref="B106" r:id="rId105" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1609518956" xr:uid="{8CE79624-DA6B-442E-A06A-DC226253010B}"/>
+    <hyperlink ref="B107" r:id="rId106" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1231429412" xr:uid="{6988D656-1490-44C7-9BC5-A0EECB27FE37}"/>
+    <hyperlink ref="B108" r:id="rId107" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18997543" xr:uid="{4E746137-F582-438B-8F49-DDE490A8F90A}"/>
+    <hyperlink ref="B109" r:id="rId108" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33085358" xr:uid="{D6890DC5-E54B-44B7-AF0D-FDE4C0060FF4}"/>
+    <hyperlink ref="B110" r:id="rId109" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1585897851" xr:uid="{1F7AF2C7-344B-4EBC-916D-24D184AFC3AB}"/>
+    <hyperlink ref="B111" r:id="rId110" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33085538" xr:uid="{2A89738C-7017-46A1-AA63-3B9C815796B7}"/>
+    <hyperlink ref="B112" r:id="rId111" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1745187035" xr:uid="{7F487567-C51A-43BD-847D-248C4BE65827}"/>
+    <hyperlink ref="B113" r:id="rId112" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1535329905" xr:uid="{67DFA7FF-F4E5-4A8D-98F4-688D94138149}"/>
+    <hyperlink ref="B114" r:id="rId113" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1914344363" xr:uid="{A880B917-4CDB-4F53-9563-FE6B88FAF213}"/>
+    <hyperlink ref="B115" r:id="rId114" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1994558640" xr:uid="{E6271C7F-58F6-481F-B120-897A56AB4EF6}"/>
+    <hyperlink ref="B116" r:id="rId115" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1350256934" xr:uid="{9D68DE7A-437E-42BA-9767-F1261A5C7B2B}"/>
+    <hyperlink ref="B117" r:id="rId116" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1847978163" xr:uid="{C29E4D5E-5808-4A76-A673-EDBFE09CB8C3}"/>
+    <hyperlink ref="B118" r:id="rId117" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1151957052" xr:uid="{152647F6-0643-4E43-B018-20623CB8CE17}"/>
+    <hyperlink ref="B119" r:id="rId118" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1204655857" xr:uid="{4B523ADE-7269-4D39-9E57-D11906C054DA}"/>
+    <hyperlink ref="B120" r:id="rId119" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1996406243" xr:uid="{17F9915D-20FE-4FD7-A5A1-38896DAD90CD}"/>
+    <hyperlink ref="B121" r:id="rId120" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1407493284" xr:uid="{6A3319BF-A2BA-4035-B97B-B3FB208FAAF1}"/>
+    <hyperlink ref="B122" r:id="rId121" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/38495788" xr:uid="{EF2CB38B-95B9-4DB5-82D2-8B3564DEFC69}"/>
+    <hyperlink ref="B123" r:id="rId122" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/38248873" xr:uid="{165E8D4C-003D-4B72-919E-50EA883FC566}"/>
+    <hyperlink ref="B124" r:id="rId123" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/21768474" xr:uid="{CA588FE7-DA52-47E7-AD00-E0C2C0B30268}"/>
+    <hyperlink ref="B125" r:id="rId124" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1742946827" xr:uid="{61DB4CD7-465B-4D56-8B8D-BC9322458378}"/>
+    <hyperlink ref="B126" r:id="rId125" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1498562177" xr:uid="{7040BAAE-3D79-406D-8F43-F1C8872FBA34}"/>
+    <hyperlink ref="B127" r:id="rId126" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18035900" xr:uid="{E67EB65C-D812-43D6-9F02-361AAA53D62D}"/>
+    <hyperlink ref="B128" r:id="rId127" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1082955503" xr:uid="{0D8E0825-082F-4F6B-B8CA-2F4348594975}"/>
+    <hyperlink ref="B129" r:id="rId128" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1053568698" xr:uid="{62317029-9C71-4E1E-96A7-F23FC06C2B71}"/>
+    <hyperlink ref="B130" r:id="rId129" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1134885263" xr:uid="{D3E758CE-EDBC-40C8-87ED-AFFA38E1E51F}"/>
+    <hyperlink ref="B131" r:id="rId130" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33085452" xr:uid="{A86AE797-F8FD-418D-99BC-1EB93737DB61}"/>
+    <hyperlink ref="B132" r:id="rId131" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18039891" xr:uid="{3C09B0CF-F078-4D18-9F4F-2238B81E270C}"/>
+    <hyperlink ref="B133" r:id="rId132" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1167690284" xr:uid="{12FF95B9-BE5C-4D4F-B400-A07FF9201FB1}"/>
+    <hyperlink ref="B134" r:id="rId133" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1159150757" xr:uid="{21036F22-3705-4CBD-9232-B68EDED58A01}"/>
+    <hyperlink ref="B135" r:id="rId134" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1007479759" xr:uid="{8E018C3B-971D-4049-A759-73CE7BF66B2C}"/>
+    <hyperlink ref="B136" r:id="rId135" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/37186372" xr:uid="{C90B99D8-4805-4907-8962-2603CD43EB4B}"/>
+    <hyperlink ref="B137" r:id="rId136" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/37039459" xr:uid="{D3679961-C6D3-4FE0-B02B-C6A8C51688E0}"/>
+    <hyperlink ref="B138" r:id="rId137" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1226489072" xr:uid="{EB163F22-85B4-45E6-8AC2-E99F5BE6C22C}"/>
+    <hyperlink ref="B139" r:id="rId138" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33213656" xr:uid="{0FD35156-0942-4175-8B80-DDEEEA6836CD}"/>
+    <hyperlink ref="B140" r:id="rId139" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18995813" xr:uid="{F5F9D70F-E427-4761-8FF1-35246764D0DE}"/>
+    <hyperlink ref="B141" r:id="rId140" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1238623730" xr:uid="{B34EFF2F-21B7-4ECB-94F8-64EEB53DF94A}"/>
+    <hyperlink ref="B142" r:id="rId141" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1000279204" xr:uid="{FB0F6032-6EE9-4C6B-922D-1D3ABAD1100B}"/>
+    <hyperlink ref="B143" r:id="rId142" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1382424481" xr:uid="{00A2FC5E-C421-4808-962B-F32B6FA05ECE}"/>
+    <hyperlink ref="B144" r:id="rId143" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/21070322" xr:uid="{84775451-3118-489B-A9F4-D5C5668B424B}"/>
+    <hyperlink ref="B145" r:id="rId144" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1914291538" xr:uid="{F1A02B13-EBC7-4487-A3DD-8B2C2F22BA5F}"/>
+    <hyperlink ref="B146" r:id="rId145" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18999124" xr:uid="{8252CA72-8DBF-40C7-B0C9-D1795C92D06A}"/>
+    <hyperlink ref="B147" r:id="rId146" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1556515025" xr:uid="{14FE1BF5-5A1B-4C81-856D-40559E3DC894}"/>
+    <hyperlink ref="B148" r:id="rId147" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1089344000" xr:uid="{09A86230-86FC-4D91-8EB2-36F5637B8BA3}"/>
+    <hyperlink ref="B149" r:id="rId148" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1108115071" xr:uid="{75D99152-CF2F-4D75-B634-8EF181E16896}"/>
+    <hyperlink ref="B150" r:id="rId149" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1369422569" xr:uid="{47CF52EB-80CC-414B-AEF1-2CDB19580003}"/>
+    <hyperlink ref="B151" r:id="rId150" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1002126751" xr:uid="{BED9DAC3-816F-41CF-B849-94C2C5B2D7BD}"/>
+    <hyperlink ref="B152" r:id="rId151" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1404225829" xr:uid="{004F7CC9-DA15-4545-83A3-1B5E8C5D9439}"/>
+    <hyperlink ref="B153" r:id="rId152" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/35652914" xr:uid="{01B7DD88-FE82-46E6-9F55-789D45370B7B}"/>
+    <hyperlink ref="B154" r:id="rId153" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1086845431" xr:uid="{6A06670C-D241-4FC2-8286-30AF49A364B5}"/>
+    <hyperlink ref="B155" r:id="rId154" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1117688704" xr:uid="{7775BE13-6A2B-466C-BEE6-9868999A2FE8}"/>
+    <hyperlink ref="B156" r:id="rId155" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1578714694" xr:uid="{80E48A8F-0410-4E70-9401-A7FB2808A937}"/>
+    <hyperlink ref="B157" r:id="rId156" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1095389920" xr:uid="{C8521F36-0D76-4B12-9F44-72BE8A04A2D1}"/>
+    <hyperlink ref="B158" r:id="rId157" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/33093093" xr:uid="{D9D22333-2281-4282-A203-5C017A0B348F}"/>
+    <hyperlink ref="B159" r:id="rId158" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/18093398" xr:uid="{1196CCAF-9E93-48E1-BE26-C89D6DC93E83}"/>
+    <hyperlink ref="B160" r:id="rId159" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/1165210506" xr:uid="{74139FAE-031F-4FA9-928D-55573F2AD6AF}"/>
+    <hyperlink ref="B161" r:id="rId160" display="https://map.naver.com/v5/search/한대정문사거리 식당/place/38274990" xr:uid="{01908CE8-DC0E-4B30-B268-38C495FF5A4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId161"/>
